--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Npnt</t>
+  </si>
+  <si>
+    <t>Itga8</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Npnt</t>
-  </si>
-  <si>
-    <t>Itga8</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H2">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I2">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J2">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N2">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O2">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P2">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q2">
-        <v>0.3068318201173333</v>
+        <v>0.2990485429205555</v>
       </c>
       <c r="R2">
-        <v>2.761486381056</v>
+        <v>2.691436886285</v>
       </c>
       <c r="S2">
-        <v>0.009207059485791031</v>
+        <v>0.01218757017651255</v>
       </c>
       <c r="T2">
-        <v>0.009207059485791029</v>
+        <v>0.01218757017651255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H3">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I3">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J3">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.348442</v>
       </c>
       <c r="O3">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P3">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q3">
-        <v>0.4499418338306666</v>
+        <v>0.248779308521111</v>
       </c>
       <c r="R3">
-        <v>4.049476504476</v>
+        <v>2.239013776689999</v>
       </c>
       <c r="S3">
-        <v>0.01350134163934071</v>
+        <v>0.01013887327941532</v>
       </c>
       <c r="T3">
-        <v>0.01350134163934071</v>
+        <v>0.01013887327941532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H4">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I4">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J4">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N4">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O4">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P4">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q4">
-        <v>0.489469681168</v>
+        <v>0.7661331973716665</v>
       </c>
       <c r="R4">
-        <v>4.405227130511999</v>
+        <v>6.895198776344999</v>
       </c>
       <c r="S4">
-        <v>0.01468744822255273</v>
+        <v>0.0312233660004946</v>
       </c>
       <c r="T4">
-        <v>0.01468744822255273</v>
+        <v>0.03122336600049461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H5">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I5">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J5">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N5">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O5">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P5">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q5">
-        <v>6.551442557252667</v>
+        <v>0.6457105307099998</v>
       </c>
       <c r="R5">
-        <v>58.962983015274</v>
+        <v>5.811394776389999</v>
       </c>
       <c r="S5">
-        <v>0.1965882199548335</v>
+        <v>0.02631560190825579</v>
       </c>
       <c r="T5">
-        <v>0.1965882199548334</v>
+        <v>0.02631560190825579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H6">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I6">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J6">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N6">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O6">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P6">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q6">
-        <v>0.8203084404926667</v>
+        <v>0.7049002291311109</v>
       </c>
       <c r="R6">
-        <v>7.382775964434</v>
+        <v>6.344102062179999</v>
       </c>
       <c r="S6">
-        <v>0.02461488057341741</v>
+        <v>0.02872784774697083</v>
       </c>
       <c r="T6">
-        <v>0.02461488057341741</v>
+        <v>0.02872784774697083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.001026</v>
+        <v>0.5534816666666665</v>
       </c>
       <c r="H7">
-        <v>3.003078</v>
+        <v>1.660445</v>
       </c>
       <c r="I7">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991592</v>
       </c>
       <c r="J7">
-        <v>0.2868023079966677</v>
+        <v>0.1265660928991593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N7">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O7">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P7">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q7">
-        <v>0.9398970126086666</v>
+        <v>0.4410025688849998</v>
       </c>
       <c r="R7">
-        <v>8.459073113477999</v>
+        <v>3.969023119964999</v>
       </c>
       <c r="S7">
-        <v>0.02820335812073234</v>
+        <v>0.01797283378751017</v>
       </c>
       <c r="T7">
-        <v>0.02820335812073233</v>
+        <v>0.01797283378751017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.423458</v>
       </c>
       <c r="I8">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J8">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N8">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O8">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P8">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q8">
-        <v>0.04326573897955555</v>
+        <v>0.07626539746155557</v>
       </c>
       <c r="R8">
-        <v>0.389391650816</v>
+        <v>0.686388577154</v>
       </c>
       <c r="S8">
-        <v>0.001298268974610083</v>
+        <v>0.003108157205933139</v>
       </c>
       <c r="T8">
-        <v>0.001298268974610083</v>
+        <v>0.003108157205933139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.423458</v>
       </c>
       <c r="I9">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J9">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.348442</v>
       </c>
       <c r="O9">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P9">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q9">
         <v>0.06344539471511111</v>
@@ -1013,10 +1013,10 @@
         <v>0.571008552436</v>
       </c>
       <c r="S9">
-        <v>0.001903797080166396</v>
+        <v>0.002585684561159602</v>
       </c>
       <c r="T9">
-        <v>0.001903797080166395</v>
+        <v>0.002585684561159601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.423458</v>
       </c>
       <c r="I10">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J10">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N10">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O10">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P10">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q10">
-        <v>0.06901913711466667</v>
+        <v>0.1953845092686667</v>
       </c>
       <c r="R10">
-        <v>0.6211722340319999</v>
+        <v>1.758460583418</v>
       </c>
       <c r="S10">
-        <v>0.002071047588316299</v>
+        <v>0.007962795587831844</v>
       </c>
       <c r="T10">
-        <v>0.002071047588316298</v>
+        <v>0.007962795587831844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.423458</v>
       </c>
       <c r="I11">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J11">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N11">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O11">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P11">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q11">
-        <v>0.9238057627571111</v>
+        <v>0.164673500124</v>
       </c>
       <c r="R11">
-        <v>8.314251864814</v>
+        <v>1.482061501116</v>
       </c>
       <c r="S11">
-        <v>0.02772051023837339</v>
+        <v>0.006711184142122252</v>
       </c>
       <c r="T11">
-        <v>0.02772051023837338</v>
+        <v>0.006711184142122252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>0.423458</v>
       </c>
       <c r="I12">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J12">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N12">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O12">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P12">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q12">
-        <v>0.1156700463971111</v>
+        <v>0.1797684603991111</v>
       </c>
       <c r="R12">
-        <v>1.041030417574</v>
+        <v>1.617916143592</v>
       </c>
       <c r="S12">
-        <v>0.003470894894457684</v>
+        <v>0.007326371515609837</v>
       </c>
       <c r="T12">
-        <v>0.003470894894457684</v>
+        <v>0.007326371515609836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.423458</v>
       </c>
       <c r="I13">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="J13">
-        <v>0.04044141768533915</v>
+        <v>0.03227774757182092</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N13">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O13">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P13">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q13">
-        <v>0.1325329908731111</v>
+        <v>0.112467480594</v>
       </c>
       <c r="R13">
-        <v>1.192796917858</v>
+        <v>1.012207325346</v>
       </c>
       <c r="S13">
-        <v>0.003976898909415299</v>
+        <v>0.00458355455916425</v>
       </c>
       <c r="T13">
-        <v>0.003976898909415298</v>
+        <v>0.004583554559164249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H14">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I14">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J14">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N14">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O14">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P14">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q14">
-        <v>0.01424314527288889</v>
+        <v>1.987471668863334</v>
       </c>
       <c r="R14">
-        <v>0.128188307456</v>
+        <v>17.88724501977</v>
       </c>
       <c r="S14">
-        <v>0.0004273920669052642</v>
+        <v>0.08099838976489264</v>
       </c>
       <c r="T14">
-        <v>0.0004273920669052642</v>
+        <v>0.08099838976489265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H15">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I15">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J15">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.348442</v>
       </c>
       <c r="O15">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P15">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q15">
-        <v>0.02088631779177778</v>
+        <v>1.653383168686667</v>
       </c>
       <c r="R15">
-        <v>0.187976860126</v>
+        <v>14.88044851818</v>
       </c>
       <c r="S15">
-        <v>0.0006267328149815</v>
+        <v>0.06738278407992987</v>
       </c>
       <c r="T15">
-        <v>0.0006267328149814999</v>
+        <v>0.06738278407992987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H16">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I16">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J16">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N16">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O16">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P16">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q16">
-        <v>0.02272120203466666</v>
+        <v>5.09170855501</v>
       </c>
       <c r="R16">
-        <v>0.204490818312</v>
+        <v>45.82537699509</v>
       </c>
       <c r="S16">
-        <v>0.0006817919296696649</v>
+        <v>0.2075099738874808</v>
       </c>
       <c r="T16">
-        <v>0.0006817919296696649</v>
+        <v>0.2075099738874809</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H17">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I17">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J17">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N17">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O17">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P17">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q17">
-        <v>0.3041182236387778</v>
+        <v>4.29138150462</v>
       </c>
       <c r="R17">
-        <v>2.737064012749</v>
+        <v>38.62243354158</v>
       </c>
       <c r="S17">
-        <v>0.009125632976021151</v>
+        <v>0.1748930549233224</v>
       </c>
       <c r="T17">
-        <v>0.009125632976021151</v>
+        <v>0.1748930549233224</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H18">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I18">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J18">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N18">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O18">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P18">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q18">
-        <v>0.03807875037877777</v>
+        <v>4.684755261106667</v>
       </c>
       <c r="R18">
-        <v>0.342708753409</v>
+        <v>42.16279734996</v>
       </c>
       <c r="S18">
-        <v>0.001142623733574722</v>
+        <v>0.1909248008598115</v>
       </c>
       <c r="T18">
-        <v>0.001142623733574722</v>
+        <v>0.1909248008598115</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04646766666666666</v>
+        <v>3.67843</v>
       </c>
       <c r="H19">
-        <v>0.139403</v>
+        <v>11.03529</v>
       </c>
       <c r="I19">
-        <v>0.01331337452495721</v>
+        <v>0.8411561595290198</v>
       </c>
       <c r="J19">
-        <v>0.01331337452495722</v>
+        <v>0.8411561595290199</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N19">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O19">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P19">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q19">
-        <v>0.04363005664477777</v>
+        <v>2.93089577697</v>
       </c>
       <c r="R19">
-        <v>0.392670509803</v>
+        <v>26.37806199273</v>
       </c>
       <c r="S19">
-        <v>0.001309201003804913</v>
+        <v>0.1194471560135826</v>
       </c>
       <c r="T19">
-        <v>0.001309201003804913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H20">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J20">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.3065173333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.9195519999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03210245953075806</v>
-      </c>
-      <c r="P20">
-        <v>0.03210245953075805</v>
-      </c>
-      <c r="Q20">
-        <v>0.7054966419911112</v>
-      </c>
-      <c r="R20">
-        <v>6.34946977792</v>
-      </c>
-      <c r="S20">
-        <v>0.02116973900345168</v>
-      </c>
-      <c r="T20">
-        <v>0.02116973900345167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H21">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J21">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4494806666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.348442</v>
-      </c>
-      <c r="O21">
-        <v>0.04707542883336065</v>
-      </c>
-      <c r="P21">
-        <v>0.04707542883336064</v>
-      </c>
-      <c r="Q21">
-        <v>1.034548674702222</v>
-      </c>
-      <c r="R21">
-        <v>9.310938072320001</v>
-      </c>
-      <c r="S21">
-        <v>0.03104355729887204</v>
-      </c>
-      <c r="T21">
-        <v>0.03104355729887203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H22">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J22">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.488968</v>
-      </c>
-      <c r="N22">
-        <v>1.466904</v>
-      </c>
-      <c r="O22">
-        <v>0.05121105309488437</v>
-      </c>
-      <c r="P22">
-        <v>0.05121105309488436</v>
-      </c>
-      <c r="Q22">
-        <v>1.125434827093334</v>
-      </c>
-      <c r="R22">
-        <v>10.12891344384</v>
-      </c>
-      <c r="S22">
-        <v>0.03377076535434568</v>
-      </c>
-      <c r="T22">
-        <v>0.03377076535434567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H23">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J23">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.544727666666667</v>
-      </c>
-      <c r="N23">
-        <v>19.634183</v>
-      </c>
-      <c r="O23">
-        <v>0.6854485283888218</v>
-      </c>
-      <c r="P23">
-        <v>0.6854485283888216</v>
-      </c>
-      <c r="Q23">
-        <v>15.06369424974223</v>
-      </c>
-      <c r="R23">
-        <v>135.57324824768</v>
-      </c>
-      <c r="S23">
-        <v>0.4520141652195938</v>
-      </c>
-      <c r="T23">
-        <v>0.4520141652195936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H24">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J24">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.8194676666666667</v>
-      </c>
-      <c r="N24">
-        <v>2.458403</v>
-      </c>
-      <c r="O24">
-        <v>0.08582525275111598</v>
-      </c>
-      <c r="P24">
-        <v>0.08582525275111597</v>
-      </c>
-      <c r="Q24">
-        <v>1.886130486542223</v>
-      </c>
-      <c r="R24">
-        <v>16.97517437888</v>
-      </c>
-      <c r="S24">
-        <v>0.05659685354966616</v>
-      </c>
-      <c r="T24">
-        <v>0.05659685354966615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.301653333333334</v>
-      </c>
-      <c r="H25">
-        <v>6.904960000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="J25">
-        <v>0.6594428997930359</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.9389336666666667</v>
-      </c>
-      <c r="N25">
-        <v>2.816801</v>
-      </c>
-      <c r="O25">
-        <v>0.09833727740105923</v>
-      </c>
-      <c r="P25">
-        <v>0.09833727740105921</v>
-      </c>
-      <c r="Q25">
-        <v>2.161099803662223</v>
-      </c>
-      <c r="R25">
-        <v>19.44989823296</v>
-      </c>
-      <c r="S25">
-        <v>0.06484781936710668</v>
-      </c>
-      <c r="T25">
-        <v>0.06484781936710667</v>
+        <v>0.1194471560135826</v>
       </c>
     </row>
   </sheetData>
